--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Ogfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Ogfr</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.252911</v>
+        <v>51.53134666666667</v>
       </c>
       <c r="H2">
-        <v>0.758733</v>
+        <v>154.59404</v>
       </c>
       <c r="I2">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="J2">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.772146333333334</v>
+        <v>10.613697</v>
       </c>
       <c r="N2">
-        <v>26.316439</v>
+        <v>31.841091</v>
       </c>
       <c r="O2">
-        <v>0.25063578626747</v>
+        <v>0.2825440831532819</v>
       </c>
       <c r="P2">
-        <v>0.25063578626747</v>
+        <v>0.282544083153282</v>
       </c>
       <c r="Q2">
-        <v>2.218572301309667</v>
+        <v>546.9380995219601</v>
       </c>
       <c r="R2">
-        <v>19.967150711787</v>
+        <v>4922.44289569764</v>
       </c>
       <c r="S2">
-        <v>0.001215798184346466</v>
+        <v>0.282445623490183</v>
       </c>
       <c r="T2">
-        <v>0.001215798184346466</v>
+        <v>0.282445623490183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.252911</v>
+        <v>51.53134666666667</v>
       </c>
       <c r="H3">
-        <v>0.758733</v>
+        <v>154.59404</v>
       </c>
       <c r="I3">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="J3">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.333029</v>
       </c>
       <c r="O3">
-        <v>0.3079373370319559</v>
+        <v>0.2869093284012623</v>
       </c>
       <c r="P3">
-        <v>0.3079373370319559</v>
+        <v>0.2869093284012623</v>
       </c>
       <c r="Q3">
-        <v>2.725792899139667</v>
+        <v>555.3881753941289</v>
       </c>
       <c r="R3">
-        <v>24.532136092257</v>
+        <v>4998.49357854716</v>
       </c>
       <c r="S3">
-        <v>0.001493759773220899</v>
+        <v>0.2868093475575685</v>
       </c>
       <c r="T3">
-        <v>0.0014937597732209</v>
+        <v>0.2868093475575686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.252911</v>
+        <v>51.53134666666667</v>
       </c>
       <c r="H4">
-        <v>0.758733</v>
+        <v>154.59404</v>
       </c>
       <c r="I4">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="J4">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.996133333333333</v>
+        <v>7.725149333333333</v>
       </c>
       <c r="N4">
-        <v>14.9884</v>
+        <v>23.175448</v>
       </c>
       <c r="O4">
-        <v>0.1427483946019956</v>
+        <v>0.2056489115535194</v>
       </c>
       <c r="P4">
-        <v>0.1427483946019956</v>
+        <v>0.2056489115535194</v>
       </c>
       <c r="Q4">
-        <v>1.263577077466667</v>
+        <v>398.0873483477689</v>
       </c>
       <c r="R4">
-        <v>11.3721936972</v>
+        <v>3582.78613512992</v>
       </c>
       <c r="S4">
-        <v>0.0006924519501387924</v>
+        <v>0.2055772479662935</v>
       </c>
       <c r="T4">
-        <v>0.0006924519501387924</v>
+        <v>0.2055772479662935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252911</v>
+        <v>51.53134666666667</v>
       </c>
       <c r="H5">
-        <v>0.758733</v>
+        <v>154.59404</v>
       </c>
       <c r="I5">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="J5">
-        <v>0.004850856306086345</v>
+        <v>0.9996515245975066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.45362033333334</v>
+        <v>8.448224333333334</v>
       </c>
       <c r="N5">
-        <v>31.360861</v>
+        <v>25.344673</v>
       </c>
       <c r="O5">
-        <v>0.2986784820985786</v>
+        <v>0.2248976768919363</v>
       </c>
       <c r="P5">
-        <v>0.2986784820985786</v>
+        <v>0.2248976768919363</v>
       </c>
       <c r="Q5">
-        <v>2.643835572123667</v>
+        <v>435.348376838769</v>
       </c>
       <c r="R5">
-        <v>23.794520149113</v>
+        <v>3918.13539154892</v>
       </c>
       <c r="S5">
-        <v>0.001448846398380187</v>
+        <v>0.2248193055834616</v>
       </c>
       <c r="T5">
-        <v>0.001448846398380188</v>
+        <v>0.2248193055834616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>51.53134666666667</v>
+        <v>0.01796366666666667</v>
       </c>
       <c r="H6">
-        <v>154.59404</v>
+        <v>0.053891</v>
       </c>
       <c r="I6">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="J6">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.772146333333334</v>
+        <v>10.613697</v>
       </c>
       <c r="N6">
-        <v>26.316439</v>
+        <v>31.841091</v>
       </c>
       <c r="O6">
-        <v>0.25063578626747</v>
+        <v>0.2825440831532819</v>
       </c>
       <c r="P6">
-        <v>0.25063578626747</v>
+        <v>0.282544083153282</v>
       </c>
       <c r="Q6">
-        <v>452.040513713729</v>
+        <v>0.190660915009</v>
       </c>
       <c r="R6">
-        <v>4068.36462342356</v>
+        <v>1.715948235081</v>
       </c>
       <c r="S6">
-        <v>0.2477223913323725</v>
+        <v>9.84596630989749E-05</v>
       </c>
       <c r="T6">
-        <v>0.2477223913323725</v>
+        <v>9.845966309897493E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>51.53134666666667</v>
+        <v>0.01796366666666667</v>
       </c>
       <c r="H7">
-        <v>154.59404</v>
+        <v>0.053891</v>
       </c>
       <c r="I7">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="J7">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>32.333029</v>
       </c>
       <c r="O7">
-        <v>0.3079373370319559</v>
+        <v>0.2869093284012623</v>
       </c>
       <c r="P7">
-        <v>0.3079373370319559</v>
+        <v>0.2869093284012623</v>
       </c>
       <c r="Q7">
-        <v>555.388175394129</v>
+        <v>0.1936065850932222</v>
       </c>
       <c r="R7">
-        <v>4998.493578547161</v>
+        <v>1.742459265839</v>
       </c>
       <c r="S7">
-        <v>0.3043578678292662</v>
+        <v>9.998084369374734E-05</v>
       </c>
       <c r="T7">
-        <v>0.3043578678292663</v>
+        <v>9.998084369374737E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>51.53134666666667</v>
+        <v>0.01796366666666667</v>
       </c>
       <c r="H8">
-        <v>154.59404</v>
+        <v>0.053891</v>
       </c>
       <c r="I8">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="J8">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.996133333333333</v>
+        <v>7.725149333333333</v>
       </c>
       <c r="N8">
-        <v>14.9884</v>
+        <v>23.175448</v>
       </c>
       <c r="O8">
-        <v>0.1427483946019956</v>
+        <v>0.2056489115535194</v>
       </c>
       <c r="P8">
-        <v>0.1427483946019956</v>
+        <v>0.2056489115535194</v>
       </c>
       <c r="Q8">
-        <v>257.4574787928889</v>
+        <v>0.1387720075742222</v>
       </c>
       <c r="R8">
-        <v>2317.117309136</v>
+        <v>1.248948068168</v>
       </c>
       <c r="S8">
-        <v>0.1410890846685652</v>
+        <v>7.166358722594687E-05</v>
       </c>
       <c r="T8">
-        <v>0.1410890846685652</v>
+        <v>7.166358722594689E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>51.53134666666667</v>
+        <v>0.01796366666666667</v>
       </c>
       <c r="H9">
-        <v>154.59404</v>
+        <v>0.053891</v>
       </c>
       <c r="I9">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="J9">
-        <v>0.9883759818241262</v>
+        <v>0.0003484754024934223</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.45362033333334</v>
+        <v>8.448224333333334</v>
       </c>
       <c r="N9">
-        <v>31.360861</v>
+        <v>25.344673</v>
       </c>
       <c r="O9">
-        <v>0.2986784820985786</v>
+        <v>0.2248976768919363</v>
       </c>
       <c r="P9">
-        <v>0.2986784820985786</v>
+        <v>0.2248976768919363</v>
       </c>
       <c r="Q9">
-        <v>538.6891333187157</v>
+        <v>0.1517610858492222</v>
       </c>
       <c r="R9">
-        <v>4848.20219986844</v>
+        <v>1.365849772643</v>
       </c>
       <c r="S9">
-        <v>0.2952066379939223</v>
+        <v>7.837130847475313E-05</v>
       </c>
       <c r="T9">
-        <v>0.2952066379939223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.353135</v>
-      </c>
-      <c r="H10">
-        <v>1.059405</v>
-      </c>
-      <c r="I10">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="J10">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.772146333333334</v>
-      </c>
-      <c r="N10">
-        <v>26.316439</v>
-      </c>
-      <c r="O10">
-        <v>0.25063578626747</v>
-      </c>
-      <c r="P10">
-        <v>0.25063578626747</v>
-      </c>
-      <c r="Q10">
-        <v>3.097751895421667</v>
-      </c>
-      <c r="R10">
-        <v>27.879767058795</v>
-      </c>
-      <c r="S10">
-        <v>0.001697596750751012</v>
-      </c>
-      <c r="T10">
-        <v>0.001697596750751012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.353135</v>
-      </c>
-      <c r="H11">
-        <v>1.059405</v>
-      </c>
-      <c r="I11">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="J11">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.77767633333333</v>
-      </c>
-      <c r="N11">
-        <v>32.333029</v>
-      </c>
-      <c r="O11">
-        <v>0.3079373370319559</v>
-      </c>
-      <c r="P11">
-        <v>0.3079373370319559</v>
-      </c>
-      <c r="Q11">
-        <v>3.805974731971667</v>
-      </c>
-      <c r="R11">
-        <v>34.253772587745</v>
-      </c>
-      <c r="S11">
-        <v>0.002085709429468716</v>
-      </c>
-      <c r="T11">
-        <v>0.002085709429468716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.353135</v>
-      </c>
-      <c r="H12">
-        <v>1.059405</v>
-      </c>
-      <c r="I12">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="J12">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.996133333333333</v>
-      </c>
-      <c r="N12">
-        <v>14.9884</v>
-      </c>
-      <c r="O12">
-        <v>0.1427483946019956</v>
-      </c>
-      <c r="P12">
-        <v>0.1427483946019956</v>
-      </c>
-      <c r="Q12">
-        <v>1.764309544666666</v>
-      </c>
-      <c r="R12">
-        <v>15.878785902</v>
-      </c>
-      <c r="S12">
-        <v>0.0009668579832916023</v>
-      </c>
-      <c r="T12">
-        <v>0.0009668579832916023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.353135</v>
-      </c>
-      <c r="H13">
-        <v>1.059405</v>
-      </c>
-      <c r="I13">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="J13">
-        <v>0.006773161869787402</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.45362033333334</v>
-      </c>
-      <c r="N13">
-        <v>31.360861</v>
-      </c>
-      <c r="O13">
-        <v>0.2986784820985786</v>
-      </c>
-      <c r="P13">
-        <v>0.2986784820985786</v>
-      </c>
-      <c r="Q13">
-        <v>3.691539216411667</v>
-      </c>
-      <c r="R13">
-        <v>33.223852947705</v>
-      </c>
-      <c r="S13">
-        <v>0.002022997706276071</v>
-      </c>
-      <c r="T13">
-        <v>0.002022997706276072</v>
+        <v>7.837130847475316E-05</v>
       </c>
     </row>
   </sheetData>
